--- a/panel.xlsx
+++ b/panel.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geyer\Dropbox (WU)\teaching\misc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="20970" windowHeight="11415"/>
+    <workbookView xWindow="1290" yWindow="30" windowWidth="20970" windowHeight="11415"/>
   </bookViews>
   <sheets>
     <sheet name="pooled OLS" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <sheet name="firm-year dummies" sheetId="13" r:id="rId8"/>
     <sheet name="year-X interaction + FE" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -27,7 +32,7 @@
     <author>Alois Geyer</author>
   </authors>
   <commentList>
-    <comment ref="Q30" authorId="0">
+    <comment ref="Q30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +55,7 @@
     <author>Alois Geyer</author>
   </authors>
   <commentList>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="72">
   <si>
     <t>YEAR</t>
   </si>
@@ -295,12 +300,15 @@
   <si>
     <t>Note that the sum of squared errors is the same</t>
   </si>
+  <si>
+    <t>FIRM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -398,6 +406,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1030,7 +1046,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1062,9 +1078,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1096,6 +1113,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1271,16 +1289,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1295,7 +1313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.5" thickBot="1">
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1309,7 +1327,7 @@
         <v>2.6720000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1327,7 +1345,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1347,7 +1365,7 @@
         <v>0.43066818879265806</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1367,7 +1385,7 @@
         <v>0.18547508883794858</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1387,7 +1405,7 @@
         <v>0.1640402227547367</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1407,7 +1425,7 @@
         <v>0.38224656848801758</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="13.5" thickBot="1">
+    <row r="8" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1427,7 +1445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1441,7 +1459,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="13.5" thickBot="1">
+    <row r="10" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1458,7 +1476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1488,7 +1506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1520,7 +1538,7 @@
         <v>5.5356509396751281E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1548,7 +1566,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="13.5" thickBot="1">
+    <row r="14" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1574,7 +1592,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="13.5" thickBot="1">
+    <row r="15" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1588,7 +1606,7 @@
         <v>2.0209999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1627,7 +1645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1668,7 +1686,7 @@
         <v>1.2919648532473447</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="13.5" thickBot="1">
+    <row r="18" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1709,7 +1727,7 @@
         <v>0.5470078611564263</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1723,7 +1741,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1737,7 +1755,7 @@
         <v>2.6389999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1751,7 +1769,7 @@
         <v>2.2229999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1765,7 +1783,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1779,7 +1797,7 @@
         <v>1.496</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1793,7 +1811,7 @@
         <v>1.3939999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1807,7 +1825,7 @@
         <v>2.9239999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1821,7 +1839,7 @@
         <v>3.1150000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1835,7 +1853,7 @@
         <v>2.7349999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1849,7 +1867,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -1863,7 +1881,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
@@ -1877,7 +1895,7 @@
         <v>1.8759999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1891,7 +1909,7 @@
         <v>2.327</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8</v>
       </c>
@@ -1905,7 +1923,7 @@
         <v>2.0059999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1919,7 +1937,7 @@
         <v>1.8260000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -1933,7 +1951,7 @@
         <v>1.8740000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -1947,7 +1965,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -1961,7 +1979,7 @@
         <v>1.488</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1975,7 +1993,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -1989,7 +2007,7 @@
         <v>1.296</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
@@ -2003,7 +2021,7 @@
         <v>1.9419999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -2017,7 +2035,7 @@
         <v>1.2450000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -2037,16 +2055,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2092,7 +2110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.5" thickBot="1">
+    <row r="2" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2136,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2184,7 +2202,7 @@
       </c>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2234,7 +2252,7 @@
         <v>0.81290999339734105</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2284,7 +2302,7 @@
         <v>0.66082265736526513</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2334,7 +2352,7 @@
         <v>0.54386495300846005</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2384,7 +2402,7 @@
         <v>0.28235639329333873</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13.5" thickBot="1">
+    <row r="8" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2434,7 +2452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2478,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.5" thickBot="1">
+    <row r="10" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -2525,7 +2543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2585,7 +2603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2647,7 +2665,7 @@
         <v>1.170473057205227E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2705,7 +2723,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="13.5" thickBot="1">
+    <row r="14" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2761,7 +2779,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:24" ht="13.5" thickBot="1">
+    <row r="15" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2805,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2874,7 +2892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2945,7 +2963,7 @@
         <v>1.7878583155163845</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3016,7 +3034,7 @@
         <v>0.19155083777338677</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3087,7 +3105,7 @@
         <v>0.94687098250491375</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3158,7 +3176,7 @@
         <v>1.0606706453790842</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -3229,7 +3247,7 @@
         <v>1.1154957068276126</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3300,7 +3318,7 @@
         <v>0.97654236310633102</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3371,7 +3389,7 @@
         <v>1.3910892528114478</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -3442,7 +3460,7 @@
         <v>0.35993623686373638</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3513,7 +3531,7 @@
         <v>1.4117373294655757</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -3584,7 +3602,7 @@
         <v>0.48779421433137143</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="13.5" thickBot="1">
+    <row r="27" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -3655,7 +3673,7 @@
         <v>0.31837773535323177</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -3699,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -3746,7 +3764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
@@ -3800,7 +3818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -3855,7 +3873,7 @@
         <v>1.9023770121218031E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8</v>
       </c>
@@ -3910,7 +3928,7 @@
         <v>0.16554799546743448</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -3965,7 +3983,7 @@
         <v>0.2499449517087442</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -4020,7 +4038,7 @@
         <v>0.14921705048405898</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -4075,7 +4093,7 @@
         <v>0.54002841817735137</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -4130,7 +4148,7 @@
         <v>-0.4369824005932112</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -4185,7 +4203,7 @@
         <v>0.49815792839224293</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -4240,7 +4258,7 @@
         <v>-0.33310120528667225</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="13.5" thickBot="1">
+    <row r="39" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10</v>
       </c>
@@ -4295,7 +4313,7 @@
         <v>-0.47123002095510741</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="13.5" thickBot="1">
+    <row r="40" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10</v>
       </c>
@@ -4359,7 +4377,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -4421,16 +4439,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4482,7 +4500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.5" thickBot="1">
+    <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4534,7 +4552,7 @@
         <v>-5.0999999999999712E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4590,7 +4608,7 @@
       </c>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4648,7 +4666,7 @@
         <v>0.11870531275297792</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4706,7 +4724,7 @@
         <v>1.4090951275782304E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4764,7 +4782,7 @@
         <v>-1.1854023690644477E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4822,7 +4840,7 @@
         <v>0.24666346411846748</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="13.5" thickBot="1">
+    <row r="8" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4880,7 +4898,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4932,7 +4950,7 @@
         <v>-0.19950000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="13.5" thickBot="1">
+    <row r="10" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4987,7 +5005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5055,7 +5073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -5125,7 +5143,7 @@
         <v>0.46567309128294654</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -5191,7 +5209,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="13.5" thickBot="1">
+    <row r="14" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -5255,7 +5273,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="13.5" thickBot="1">
+    <row r="15" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -5307,7 +5325,7 @@
         <v>-4.6750000000000291E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -5384,7 +5402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5463,7 +5481,7 @@
         <v>7.8953230334527877E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="13.5" thickBot="1">
+    <row r="18" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -5542,7 +5560,7 @@
         <v>0.15372521207750933</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -5594,7 +5612,7 @@
         <v>-0.17549999999999955</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -5646,7 +5664,7 @@
         <v>0.38350000000000017</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -5698,7 +5716,7 @@
         <v>-3.2499999999999751E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -5750,7 +5768,7 @@
         <v>-0.68475000000000019</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -5805,7 +5823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -5860,7 +5878,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -5915,7 +5933,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -5970,7 +5988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7</v>
       </c>
@@ -6022,7 +6040,7 @@
         <v>8.9999999999999858E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -6077,7 +6095,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -6132,7 +6150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
@@ -6187,7 +6205,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -6242,7 +6260,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8</v>
       </c>
@@ -6294,7 +6312,7 @@
         <v>-2.7500000000002522E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -6346,7 +6364,7 @@
         <v>-0.18274999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -6398,7 +6416,7 @@
         <v>0.37125000000000008</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -6450,7 +6468,7 @@
         <v>0.20724999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -6502,7 +6520,7 @@
         <v>-1.4750000000000041E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -6554,7 +6572,7 @@
         <v>-0.56375000000000008</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -6606,7 +6624,7 @@
         <v>-0.12375000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
@@ -6658,7 +6676,7 @@
         <v>0.52224999999999988</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -6710,7 +6728,7 @@
         <v>-0.17474999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -6762,7 +6780,7 @@
         <v>-0.22375000000000012</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D42" s="1" t="s">
         <v>43</v>
       </c>
@@ -6798,7 +6816,7 @@
         <v>1.1721194480625123</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D43" s="1" t="s">
         <v>44</v>
       </c>
@@ -6842,16 +6860,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>34</v>
@@ -6875,7 +6893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1">
+    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6897,7 +6915,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6929,7 +6947,7 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6963,7 +6981,7 @@
         <v>0.37065912844793558</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6997,7 +7015,7 @@
         <v>0.13738818950178319</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7029,7 +7047,7 @@
         <v>0.10658062484113259</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -7063,7 +7081,7 @@
         <v>0.29944483422074564</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="13.5" thickBot="1">
+    <row r="8" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -7097,7 +7115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7125,7 +7143,7 @@
         <v>-0.18999999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickBot="1">
+    <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7154,7 +7172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7198,7 +7216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -7244,7 +7262,7 @@
         <v>4.3759452598625424E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -7286,7 +7304,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:18" ht="13.5" thickBot="1">
+    <row r="14" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -7324,7 +7342,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="13.5" thickBot="1">
+    <row r="15" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -7352,7 +7370,7 @@
         <v>-0.16199999999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -7405,7 +7423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -7460,7 +7478,7 @@
         <v>0.22990323552579794</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="13.5" thickBot="1">
+    <row r="18" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -7513,7 +7531,7 @@
         <v>-7.7706307902261629E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -7541,7 +7559,7 @@
         <v>0.47100000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -7569,7 +7587,7 @@
         <v>-0.10200000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -7597,7 +7615,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -7623,7 +7641,7 @@
         <v>-0.38000000000000034</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -7651,7 +7669,7 @@
         <v>-0.34499999999999975</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -7679,7 +7697,7 @@
         <v>-5.0000000000000266E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -7707,7 +7725,7 @@
         <v>0.45100000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -7733,7 +7751,7 @@
         <v>-0.32100000000000017</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7</v>
       </c>
@@ -7761,7 +7779,7 @@
         <v>-0.17999999999999972</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -7789,7 +7807,7 @@
         <v>-0.16400000000000015</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -7817,7 +7835,7 @@
         <v>-0.22199999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
@@ -7843,7 +7861,7 @@
         <v>-0.54900000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -7871,7 +7889,7 @@
         <v>0.64599999999999991</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8</v>
       </c>
@@ -7899,7 +7917,7 @@
         <v>-0.69699999999999984</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -7927,7 +7945,7 @@
         <v>-4.9000000000000155E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -7944,7 +7962,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -7963,7 +7981,7 @@
         <v>-0.16400000000000015</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -7982,7 +8000,7 @@
         <v>-0.22199999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -8001,7 +8019,7 @@
         <v>-0.54900000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -8018,7 +8036,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
@@ -8037,7 +8055,7 @@
         <v>0.64599999999999991</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -8056,7 +8074,7 @@
         <v>-0.69699999999999984</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -8086,16 +8104,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>34</v>
@@ -8111,7 +8129,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.5" thickBot="1">
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8125,7 +8143,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8143,7 +8161,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8163,7 +8181,7 @@
         <v>0.50455283711909071</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -8183,7 +8201,7 @@
         <v>0.25457356544492366</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8203,7 +8221,7 @@
         <v>0.21428024465816278</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8223,7 +8241,7 @@
         <v>0.37058235846182447</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="13.5" thickBot="1">
+    <row r="8" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8243,7 +8261,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8257,7 +8275,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="13.5" thickBot="1">
+    <row r="10" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8274,7 +8292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -8304,7 +8322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -8336,7 +8354,7 @@
         <v>4.3600213007885281E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -8364,7 +8382,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="13.5" thickBot="1">
+    <row r="14" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -8390,7 +8408,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="13.5" thickBot="1">
+    <row r="15" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -8404,7 +8422,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -8443,7 +8461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -8484,7 +8502,7 @@
         <v>18.910096680591408</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -8525,7 +8543,7 @@
         <v>0.53249729833524151</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="13.5" thickBot="1">
+    <row r="19" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -8566,7 +8584,7 @@
         <v>0.20341696268590997</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -8589,7 +8607,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8606,7 +8624,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -8620,7 +8638,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8634,7 +8652,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -8648,7 +8666,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -8662,7 +8680,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -8676,7 +8694,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7</v>
       </c>
@@ -8690,7 +8708,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -8704,7 +8722,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -8718,7 +8736,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
@@ -8732,7 +8750,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -8746,7 +8764,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8</v>
       </c>
@@ -8760,7 +8778,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -8774,7 +8792,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -8788,7 +8806,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -8802,7 +8820,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -8816,7 +8834,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -8830,7 +8848,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -8844,7 +8862,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
@@ -8858,7 +8876,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -8872,7 +8890,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -8892,16 +8910,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -8926,7 +8944,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8952,7 +8970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8982,7 +9000,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9014,7 +9032,7 @@
         <v>0.51023188811407594</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -9046,7 +9064,7 @@
         <v>0.26033657964845486</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9078,7 +9096,7 @@
         <v>0.17580361732256397</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -9110,7 +9128,7 @@
         <v>0.37954760613875133</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="13.5" thickBot="1">
+    <row r="8" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -9142,7 +9160,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -9168,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="13.5" thickBot="1">
+    <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -9197,7 +9215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -9239,7 +9257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9283,7 +9301,7 @@
         <v>2.8369463645541004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -9323,7 +9341,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -9361,7 +9379,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="13.5" thickBot="1">
+    <row r="15" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -9387,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -9438,7 +9456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -9491,7 +9509,7 @@
         <v>1.4946562535849073</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -9544,7 +9562,7 @@
         <v>0.53569898392243132</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -9597,7 +9615,7 @@
         <v>3.266005559966112E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -9650,7 +9668,7 @@
         <v>0.21328341493612932</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="13.5" thickBot="1">
+    <row r="21" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -9703,7 +9721,7 @@
         <v>0.24830946572083501</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -9729,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -9755,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -9781,7 +9799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -9807,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -9833,7 +9851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7</v>
       </c>
@@ -9859,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -9885,7 +9903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -9911,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
@@ -9937,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -9963,7 +9981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8</v>
       </c>
@@ -9989,7 +10007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -10015,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -10041,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -10067,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -10093,7 +10111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -10119,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -10145,7 +10163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
@@ -10171,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -10197,7 +10215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -10230,16 +10248,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -10294,7 +10312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="13.5" thickBot="1">
+    <row r="2" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10350,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10410,7 +10428,7 @@
       </c>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10472,7 +10490,7 @@
         <v>0.86791706749785635</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10534,7 +10552,7 @@
         <v>0.75328003605407856</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10596,7 +10614,7 @@
         <v>0.62992005408111784</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -10658,7 +10676,7 @@
         <v>0.25433063789614596</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="13.5" thickBot="1">
+    <row r="8" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -10720,7 +10738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -10776,7 +10794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="13.5" thickBot="1">
+    <row r="10" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10835,7 +10853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10907,7 +10925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -10981,7 +10999,7 @@
         <v>4.6670716005710084E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -11051,7 +11069,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:27" ht="13.5" thickBot="1">
+    <row r="14" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -11119,7 +11137,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:27" ht="13.5" thickBot="1">
+    <row r="15" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -11175,7 +11193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -11256,7 +11274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -11339,7 +11357,7 @@
         <v>1.9582918524618211</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -11422,7 +11440,7 @@
         <v>0.13071840222991807</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -11505,7 +11523,7 @@
         <v>-0.10908551877703096</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -11588,7 +11606,7 @@
         <v>0.11200754793748309</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -11671,7 +11689,7 @@
         <v>0.14066790594840028</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -11754,7 +11772,7 @@
         <v>0.94318347063025665</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -11837,7 +11855,7 @@
         <v>1.0532038319920862</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -11920,7 +11938,7 @@
         <v>1.1039483331472406</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -12003,7 +12021,7 @@
         <v>0.95790654061781544</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -12086,7 +12104,7 @@
         <v>1.3771839552151879</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7</v>
       </c>
@@ -12169,7 +12187,7 @@
         <v>0.33100419619545701</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -12252,7 +12270,7 @@
         <v>1.4064757039821683</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -12335,7 +12353,7 @@
         <v>0.46758268533495284</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="12.75" customHeight="1" thickBot="1">
+    <row r="30" spans="1:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -12418,7 +12436,7 @@
         <v>0.28262460563042796</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -12474,7 +12492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8</v>
       </c>
@@ -12530,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -12586,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -12642,7 +12660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -12698,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -12754,7 +12772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -12810,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -12866,7 +12884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
@@ -12922,7 +12940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -12978,7 +12996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -13041,16 +13059,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -13096,7 +13114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.5" thickBot="1">
+    <row r="2" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13141,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13190,7 +13208,7 @@
       </c>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -13241,7 +13259,7 @@
         <v>0.86152934440257589</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -13292,7 +13310,7 @@
         <v>0.74223281126673213</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -13343,7 +13361,7 @@
         <v>0.64096712997866256</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -13394,7 +13412,7 @@
         <v>0.25050592938857619</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13.5" thickBot="1">
+    <row r="8" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -13445,7 +13463,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -13490,7 +13508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.5" thickBot="1">
+    <row r="10" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -13538,7 +13556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -13599,7 +13617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -13662,7 +13680,7 @@
         <v>1.0104619257717516E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -13721,7 +13739,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="13.5" thickBot="1">
+    <row r="14" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -13778,7 +13796,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:24" ht="13.5" thickBot="1">
+    <row r="15" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -13823,7 +13841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -13893,7 +13911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -13965,7 +13983,7 @@
         <v>-63.658847695385106</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -14037,7 +14055,7 @@
         <v>0.1364434790799228</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -14109,7 +14127,7 @@
         <v>0.17848378779839585</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -14181,7 +14199,7 @@
         <v>0.17855385082497993</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -14253,7 +14271,7 @@
         <v>0.17859260930377435</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -14325,7 +14343,7 @@
         <v>0.17853567023485944</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -14397,7 +14415,7 @@
         <v>0.17873688341203287</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -14469,7 +14487,7 @@
         <v>0.17823247352953692</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -14541,7 +14559,7 @@
         <v>0.17872393817932014</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -14613,7 +14631,7 @@
         <v>0.17829101886450177</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7</v>
       </c>
@@ -14685,7 +14703,7 @@
         <v>0.17821082748389999</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="13.5" thickBot="1">
+    <row r="28" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -14757,7 +14775,7 @@
         <v>0.17825478571106484</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -14802,7 +14820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="12.75" customHeight="1">
+    <row r="30" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
@@ -14847,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -14892,7 +14910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8</v>
       </c>
@@ -14937,7 +14955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -14982,7 +15000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -15027,7 +15045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -15072,7 +15090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -15117,7 +15135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -15162,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -15207,7 +15225,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
@@ -15252,7 +15270,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -15297,7 +15315,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -15349,20 +15367,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -15420,7 +15438,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="13.5" thickBot="1">
+    <row r="2" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15480,7 +15498,7 @@
         <v>-105.24999999999909</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15544,7 +15562,7 @@
       </c>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -15610,7 +15628,7 @@
         <v>0.41139785363382764</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -15676,7 +15694,7 @@
         <v>0.16924819397452026</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -15742,7 +15760,7 @@
         <v>0.12434269094611596</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -15808,7 +15826,7 @@
         <v>0.22946316704623806</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="13.5" thickBot="1">
+    <row r="8" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -15874,7 +15892,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -15934,7 +15952,7 @@
         <v>-391.71099999999933</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.5" thickBot="1">
+    <row r="10" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -15997,7 +16015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -16073,7 +16091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -16151,7 +16169,7 @@
         <v>3.2375683122197997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -16225,7 +16243,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:28" ht="13.5" thickBot="1">
+    <row r="14" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -16297,7 +16315,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:28" ht="13.5" thickBot="1">
+    <row r="15" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -16357,7 +16375,7 @@
         <v>-93.770250000000487</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -16442,7 +16460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -16529,7 +16547,7 @@
         <v>7.3512921062236183E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -16616,7 +16634,7 @@
         <v>-18.059324003774982</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.5" thickBot="1">
+    <row r="19" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -16703,7 +16721,7 @@
         <v>7.0036041539714849E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -16763,7 +16781,7 @@
         <v>761.10124999999971</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -16823,7 +16841,7 @@
         <v>-61.187750000000051</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -16883,7 +16901,7 @@
         <v>-1359.0690000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -16943,7 +16961,7 @@
         <v>-424.99299999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -17003,7 +17021,7 @@
         <v>-625.66100000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -17063,7 +17081,7 @@
         <v>2409.7229999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -17123,7 +17141,7 @@
         <v>926.96625000000131</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7</v>
       </c>
@@ -17183,7 +17201,7 @@
         <v>177.30125000000044</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -17243,7 +17261,7 @@
         <v>-503.75374999999894</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -17303,7 +17321,7 @@
         <v>-600.51375000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
@@ -17363,7 +17381,7 @@
         <v>-265.79925000000048</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -17423,7 +17441,7 @@
         <v>629.50775000000021</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8</v>
       </c>
@@ -17483,7 +17501,7 @@
         <v>-4.3872500000006767</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -17543,7 +17561,7 @@
         <v>-359.32124999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -17603,7 +17621,7 @@
         <v>733.19925000000012</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -17663,7 +17681,7 @@
         <v>410.18924999999945</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -17723,7 +17741,7 @@
         <v>-28.104750000000422</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -17783,7 +17801,7 @@
         <v>-1115.2837500000005</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -17843,7 +17861,7 @@
         <v>-247.0300000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
@@ -17903,7 +17921,7 @@
         <v>1033.9919999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -17963,7 +17981,7 @@
         <v>-345.52</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -18023,7 +18041,7 @@
         <v>-441.44200000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E42" s="1" t="s">
         <v>43</v>
       </c>
@@ -18059,7 +18077,7 @@
         <v>1.1721194480625123</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E43" s="1" t="s">
         <v>44</v>
       </c>
@@ -18095,7 +18113,7 @@
         <v>1.4197500000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E44" s="1" t="s">
         <v>57</v>
       </c>
